--- a/medicine/Psychotrope/Sapa/Sapa.xlsx
+++ b/medicine/Psychotrope/Sapa/Sapa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sapa (ou saba en italien) est un sirop sucré obtenu  à partir de raisin. On en trouve en Émilie-Romagne, dans les Marches et en Sardaigne.
@@ -512,7 +524,9 @@
           <t>Élaboration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sapa est obtenu par réduction d'un jus de raisin (moût ou vinaigre de raisin) par chauffage jusqu'à l'obtention d'un sirop épais et visqueux.
 </t>
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sapa est associé à la cuisine des Abruzzes, où il est connu sous le nom de mosto cotto, mais il est aussi utilisé dans d'autre régions italiennes (Émilie-Romagne, Marches et Sardaigne). Le sapa est utilisé comme condiment, sirop pour dessert, sauce aigre-douce pour plat ou édulcorant pour gâteau. Dilué dans l'eau, il donne une boisson rafraîchissante. Il sert à la fabrication du vinaigre balsamique par fermentation. En Sardaigne, le sapa peut aussi être obtenu à partir de figue de Barbarie. En Bourgogne, il est connu sous le nom de « raisiné ».
 </t>
